--- a/Data/Study Data/Data_Sheet_For_Recording.xlsx
+++ b/Data/Study Data/Data_Sheet_For_Recording.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\ADV SCIENCE\BIOS3061 - Plant Ecology\Fire---Sprouters-vs.-Seeders-master\Data\Study Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C0A5E7-4206-45EE-BD1E-9113A5893034}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3063CB84-EB76-4CD2-95C7-61C9EB65B4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6315" xr2:uid="{E9C079D1-3054-4F92-9AD4-726854F2FE38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="83">
   <si>
     <t>Coordinates</t>
   </si>
@@ -149,6 +151,147 @@
   </si>
   <si>
     <t>35°32'36.1"S 150°23'04.7"E</t>
+  </si>
+  <si>
+    <t>Leucopogon</t>
+  </si>
+  <si>
+    <t>35°32'39.3"S 150°23'06.1"E</t>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+  </si>
+  <si>
+    <t>Leucopogon_parvifloris</t>
+  </si>
+  <si>
+    <t>35°32'39.6"S 150°23'06.7"E</t>
+  </si>
+  <si>
+    <t>35°32'39.4"S 150°23'06.2"E</t>
+  </si>
+  <si>
+    <t>Leucopogon_juniperinus</t>
+  </si>
+  <si>
+    <t>35°32'45.1"S 150°22'20.3"E</t>
+  </si>
+  <si>
+    <t>35°32'45.1"S 150°22'20.2"E</t>
+  </si>
+  <si>
+    <t>35°32'45.2"S 150°23'20.2"E</t>
+  </si>
+  <si>
+    <t>35°32'45.3"S 150°23'20.2"E</t>
+  </si>
+  <si>
+    <t>35°32'45.7"S 150°22'20.1"E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MINUS TAPE FROM DRY WEIGHT </t>
+  </si>
+  <si>
+    <t>35°32'45.7"S 150°22'20.2"E</t>
+  </si>
+  <si>
+    <t>Hakea_eriantha</t>
+  </si>
+  <si>
+    <t>Hakea</t>
+  </si>
+  <si>
+    <t>Proteaceae</t>
+  </si>
+  <si>
+    <t>35°32'45.0"S 150°22'11.6"E</t>
+  </si>
+  <si>
+    <t>35°32'44.5"S 150°22'10.6"E</t>
+  </si>
+  <si>
+    <t>35°32'44.5"S 150°22'10.4"E</t>
+  </si>
+  <si>
+    <t>35°32'44.8"S 150°22'10.4"E</t>
+  </si>
+  <si>
+    <t>Persoonia_linearis</t>
+  </si>
+  <si>
+    <t>Persoonia</t>
+  </si>
+  <si>
+    <t>35°32'44.3"S 150°22'07.6"E</t>
+  </si>
+  <si>
+    <t>35°32'43.7"S 150°22'05.9"E</t>
+  </si>
+  <si>
+    <t>35°32'43.4"S 150°22'03.4"E</t>
+  </si>
+  <si>
+    <t>35°32'38.7"S 150°21'56.9"E</t>
+  </si>
+  <si>
+    <t>35°32'37.9"S 150°21'52.4"E</t>
+  </si>
+  <si>
+    <t>Kunzea_ambigua</t>
+  </si>
+  <si>
+    <t>35°32'32.5"S 150°23'05.6"E</t>
+  </si>
+  <si>
+    <t>35°32'27.8"S 150°23'06.3"E</t>
+  </si>
+  <si>
+    <t>35°32'29.2"S 150°23'06.0"E</t>
+  </si>
+  <si>
+    <t>Kunzea</t>
+  </si>
+  <si>
+    <t>35°32'42.3"S 150°22'38.1"E</t>
+  </si>
+  <si>
+    <t>Hibbertia_obtusifolia</t>
+  </si>
+  <si>
+    <t>Hibbertia</t>
+  </si>
+  <si>
+    <t>Dilleniaceae</t>
+  </si>
+  <si>
+    <t>35°32'42.2"S 150°22'38.0"E</t>
+  </si>
+  <si>
+    <t>35°32'42.3"S 150°22'38.3"E</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Indigofera_australis</t>
+  </si>
+  <si>
+    <t>Indigofera</t>
+  </si>
+  <si>
+    <t>Fabaceae</t>
+  </si>
+  <si>
+    <t>35°32'40.1"S 150°21'35.6"E</t>
+  </si>
+  <si>
+    <t>35°32'40.3"S 150°21'32.8"E</t>
+  </si>
+  <si>
+    <t>35°32'41.1"S 150°21'31.9"E</t>
+  </si>
+  <si>
+    <t>35°32'40.9"S 150°21'32.9"E</t>
   </si>
 </sst>
 </file>
@@ -517,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0865C541-AEC4-49AA-B03D-777CE047A66E}">
   <dimension ref="A1:L1484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="N95" sqref="N95"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="F258" sqref="F258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,12 +735,15 @@
       <c r="G2">
         <v>0.89</v>
       </c>
+      <c r="H2">
+        <v>0.45</v>
+      </c>
       <c r="I2">
         <v>1.04</v>
       </c>
       <c r="J2">
         <f>H2/I2</f>
-        <v>0</v>
+        <v>0.43269230769230771</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -622,12 +768,15 @@
       <c r="G3">
         <v>0.81</v>
       </c>
+      <c r="H3">
+        <v>0.44</v>
+      </c>
       <c r="I3">
         <v>0.79</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J66" si="0">H3/I3</f>
-        <v>0</v>
+        <v>0.55696202531645567</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,12 +801,15 @@
       <c r="G4">
         <v>0.68</v>
       </c>
+      <c r="H4">
+        <v>0.37</v>
+      </c>
       <c r="I4">
         <v>0.69</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53623188405797106</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -682,12 +834,15 @@
       <c r="G5">
         <v>0.97</v>
       </c>
+      <c r="H5">
+        <v>0.46</v>
+      </c>
       <c r="I5">
         <v>0.98</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.46938775510204084</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -712,12 +867,15 @@
       <c r="G6">
         <v>0.7</v>
       </c>
+      <c r="H6">
+        <v>0.47</v>
+      </c>
       <c r="I6">
         <v>1.04</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45192307692307687</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -742,12 +900,15 @@
       <c r="G7">
         <v>1.24</v>
       </c>
+      <c r="H7">
+        <v>0.71</v>
+      </c>
       <c r="I7">
         <v>1.32</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53787878787878785</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -772,12 +933,15 @@
       <c r="G8">
         <v>0.79</v>
       </c>
+      <c r="H8">
+        <v>0.36</v>
+      </c>
       <c r="I8">
         <v>0.83</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.43373493975903615</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -802,12 +966,15 @@
       <c r="G9">
         <v>1.78</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
         <v>1.82</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56043956043956045</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -832,12 +999,15 @@
       <c r="G10">
         <v>0.86</v>
       </c>
+      <c r="H10">
+        <v>0.4</v>
+      </c>
       <c r="I10">
         <v>0.97</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41237113402061859</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -862,12 +1032,15 @@
       <c r="G11">
         <v>0.77</v>
       </c>
+      <c r="H11">
+        <v>0.32</v>
+      </c>
       <c r="I11">
         <v>0.79</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H11/I11</f>
+        <v>0.4050632911392405</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -892,12 +1065,11 @@
       <c r="G12">
         <v>1.1299999999999999</v>
       </c>
+      <c r="H12">
+        <v>0.66</v>
+      </c>
       <c r="I12">
         <v>1.04</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -922,12 +1094,11 @@
       <c r="G13">
         <v>1.44</v>
       </c>
+      <c r="H13">
+        <v>0.76</v>
+      </c>
       <c r="I13">
         <v>1.32</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -952,12 +1123,11 @@
       <c r="G14">
         <v>1.06</v>
       </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
       <c r="I14">
         <v>0.97</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -982,12 +1152,11 @@
       <c r="G15">
         <v>1.1399999999999999</v>
       </c>
+      <c r="H15">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="I15">
         <v>1.04</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1012,12 +1181,11 @@
       <c r="G16">
         <v>1.35</v>
       </c>
+      <c r="H16">
+        <v>0.79</v>
+      </c>
       <c r="I16">
         <v>1.25</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1042,12 +1210,15 @@
       <c r="G17">
         <v>1.45</v>
       </c>
+      <c r="H17">
+        <v>0.72</v>
+      </c>
       <c r="I17">
         <v>1.38</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1072,12 +1243,15 @@
       <c r="G18">
         <v>1.75</v>
       </c>
+      <c r="H18">
+        <v>0.96</v>
+      </c>
       <c r="I18">
         <v>1.65</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.58181818181818179</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1102,12 +1276,15 @@
       <c r="G19">
         <v>1.37</v>
       </c>
+      <c r="H19">
+        <v>0.65</v>
+      </c>
       <c r="I19">
         <v>1.3</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1132,12 +1309,15 @@
       <c r="G20">
         <v>1.49</v>
       </c>
+      <c r="H20">
+        <v>0.79</v>
+      </c>
       <c r="I20">
         <v>1.4</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.56428571428571439</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1162,12 +1342,15 @@
       <c r="G21">
         <v>1.46</v>
       </c>
+      <c r="H21">
+        <v>0.8</v>
+      </c>
       <c r="I21">
         <v>1.5</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1192,12 +1375,15 @@
       <c r="G22">
         <v>1.3</v>
       </c>
+      <c r="H22">
+        <v>0.38</v>
+      </c>
       <c r="I22">
         <v>1.1100000000000001</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34234234234234234</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1222,12 +1408,15 @@
       <c r="G23">
         <v>0.94</v>
       </c>
+      <c r="H23">
+        <v>0.53</v>
+      </c>
       <c r="I23">
         <v>0.78</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.67948717948717952</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1252,12 +1441,15 @@
       <c r="G24">
         <v>1.33</v>
       </c>
+      <c r="H24">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="I24">
         <v>1.26</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.44444444444444448</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1282,12 +1474,15 @@
       <c r="G25">
         <v>1.33</v>
       </c>
+      <c r="H25">
+        <v>0.57999999999999996</v>
+      </c>
       <c r="I25">
         <v>1.21</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.47933884297520657</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1312,12 +1507,15 @@
       <c r="G26">
         <v>1.57</v>
       </c>
+      <c r="H26">
+        <v>0.69</v>
+      </c>
       <c r="I26">
         <v>1.42</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.48591549295774644</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1342,12 +1540,15 @@
       <c r="G27">
         <v>0.87</v>
       </c>
+      <c r="H27">
+        <v>0.24</v>
+      </c>
       <c r="I27">
         <v>0.8</v>
       </c>
       <c r="J27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H27/I12</f>
+        <v>0.23076923076923075</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1372,12 +1573,15 @@
       <c r="G28">
         <v>1.67</v>
       </c>
+      <c r="H28">
+        <v>0.65</v>
+      </c>
       <c r="I28">
         <v>1.56</v>
       </c>
       <c r="J28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H28/I13</f>
+        <v>0.49242424242424243</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1402,12 +1606,15 @@
       <c r="G29">
         <v>1.1100000000000001</v>
       </c>
+      <c r="H29">
+        <v>0.33</v>
+      </c>
       <c r="I29">
         <v>1.05</v>
       </c>
       <c r="J29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H29/I14</f>
+        <v>0.34020618556701032</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1432,12 +1639,15 @@
       <c r="G30">
         <v>1.05</v>
       </c>
+      <c r="H30">
+        <v>0.31</v>
+      </c>
       <c r="I30">
         <v>0.98</v>
       </c>
       <c r="J30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H30/I15</f>
+        <v>0.29807692307692307</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,12 +1672,15 @@
       <c r="G31">
         <v>1.73</v>
       </c>
+      <c r="H31">
+        <v>0.77</v>
+      </c>
       <c r="I31">
         <v>1.64</v>
       </c>
       <c r="J31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H31/I16</f>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1492,12 +1705,11 @@
       <c r="G32">
         <v>0.64</v>
       </c>
+      <c r="H32">
+        <v>0.34</v>
+      </c>
       <c r="I32">
         <v>0.64</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1522,12 +1734,15 @@
       <c r="G33">
         <v>0.6</v>
       </c>
+      <c r="H33">
+        <v>0.34</v>
+      </c>
       <c r="I33">
         <v>0.57999999999999996</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5862068965517242</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,12 +1767,15 @@
       <c r="G34">
         <v>0.7</v>
       </c>
+      <c r="H34">
+        <v>0.4</v>
+      </c>
       <c r="I34">
         <v>0.62</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.64516129032258074</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1582,12 +1800,15 @@
       <c r="G35">
         <v>1.41</v>
       </c>
+      <c r="H35">
+        <v>0.82</v>
+      </c>
       <c r="I35">
         <v>1.27</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.64566929133858264</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1612,12 +1833,15 @@
       <c r="G36">
         <v>1.22</v>
       </c>
+      <c r="H36">
+        <v>0.68</v>
+      </c>
       <c r="I36">
         <v>1.06</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.64150943396226412</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -1642,12 +1866,15 @@
       <c r="G37">
         <v>1.83</v>
       </c>
+      <c r="H37">
+        <v>1.1299999999999999</v>
+      </c>
       <c r="I37">
         <v>1.63</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.69325153374233128</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -1672,12 +1899,15 @@
       <c r="G38">
         <v>2.04</v>
       </c>
+      <c r="H38">
+        <v>1.05</v>
+      </c>
       <c r="I38">
         <v>1.9</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55263157894736847</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -1702,12 +1932,15 @@
       <c r="G39">
         <v>1.72</v>
       </c>
+      <c r="H39">
+        <v>0.91</v>
+      </c>
       <c r="I39">
         <v>1.52</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59868421052631582</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,12 +1965,15 @@
       <c r="G40">
         <v>1.35</v>
       </c>
+      <c r="H40">
+        <v>0.67</v>
+      </c>
       <c r="I40">
         <v>1.28</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5234375</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,12 +1998,15 @@
       <c r="G41">
         <v>1.75</v>
       </c>
+      <c r="H41">
+        <v>1.04</v>
+      </c>
       <c r="I41">
         <v>1.6</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -1792,12 +2031,15 @@
       <c r="G42">
         <v>0.91</v>
       </c>
+      <c r="H42">
+        <v>0.49</v>
+      </c>
       <c r="I42">
         <v>0.95</v>
       </c>
       <c r="J42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H42/I37</f>
+        <v>0.30061349693251538</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -1822,12 +2064,15 @@
       <c r="G43">
         <v>1.63</v>
       </c>
+      <c r="H43">
+        <v>1.02</v>
+      </c>
       <c r="I43">
         <v>1.62</v>
       </c>
       <c r="J43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H43/I38</f>
+        <v>0.5368421052631579</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -1852,12 +2097,15 @@
       <c r="G44">
         <v>0.6</v>
       </c>
+      <c r="H44">
+        <v>0.44</v>
+      </c>
       <c r="I44">
         <v>0.69</v>
       </c>
       <c r="J44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H44/I39</f>
+        <v>0.28947368421052633</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -1882,12 +2130,15 @@
       <c r="G45">
         <v>1.18</v>
       </c>
+      <c r="H45">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="I45">
         <v>1.1599999999999999</v>
       </c>
       <c r="J45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H45/I40</f>
+        <v>0.43750000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,12 +2163,15 @@
       <c r="G46">
         <v>1.76</v>
       </c>
+      <c r="H46">
+        <v>1.04</v>
+      </c>
       <c r="I46">
         <v>1.76</v>
       </c>
       <c r="J46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>H46/I41</f>
+        <v>0.65</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -1942,12 +2196,15 @@
       <c r="G47">
         <v>1.25</v>
       </c>
+      <c r="H47">
+        <v>0.56000000000000005</v>
+      </c>
       <c r="I47">
         <v>1.23</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.45528455284552849</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -1972,12 +2229,15 @@
       <c r="G48">
         <v>0.6</v>
       </c>
+      <c r="H48">
+        <v>0.54</v>
+      </c>
       <c r="I48">
         <v>0.91</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.59340659340659341</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,12 +2262,15 @@
       <c r="G49">
         <v>1.1000000000000001</v>
       </c>
+      <c r="H49">
+        <v>0.4</v>
+      </c>
       <c r="I49">
         <v>1.02</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39215686274509803</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2032,12 +2295,15 @@
       <c r="G50">
         <v>1.75</v>
       </c>
+      <c r="H50">
+        <v>1.03</v>
+      </c>
       <c r="I50">
         <v>1.71</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.60233918128654973</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2062,12 +2328,15 @@
       <c r="G51">
         <v>0.88</v>
       </c>
+      <c r="H51">
+        <v>0.34</v>
+      </c>
       <c r="I51">
         <v>0.84</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.40476190476190482</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,1122 +3840,5181 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J102" t="e">
+      <c r="A102" t="s">
+        <v>37</v>
+      </c>
+      <c r="B102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C102" t="s">
+        <v>36</v>
+      </c>
+      <c r="D102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0.35</v>
+      </c>
+      <c r="I102">
+        <v>0.31</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J103" t="e">
+      <c r="A103" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>39</v>
+      </c>
+      <c r="C103" t="s">
+        <v>36</v>
+      </c>
+      <c r="D103" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>0.34</v>
+      </c>
+      <c r="I103">
+        <v>0.3</v>
+      </c>
+      <c r="J103">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J104" t="e">
+      <c r="A104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>39</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>38</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>3</v>
+      </c>
+      <c r="G104">
+        <v>0.31</v>
+      </c>
+      <c r="I104">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J104">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J105" t="e">
+      <c r="A105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>4</v>
+      </c>
+      <c r="G105">
+        <v>0.41</v>
+      </c>
+      <c r="I105">
+        <v>0.37</v>
+      </c>
+      <c r="J105">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J106" t="e">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>5</v>
+      </c>
+      <c r="G106">
+        <v>0.59</v>
+      </c>
+      <c r="I106">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J106">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J107" t="e">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s">
+        <v>36</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0.67</v>
+      </c>
+      <c r="I107">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J107">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J108" t="e">
+      <c r="A108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>0.62</v>
+      </c>
+      <c r="I108">
+        <v>0.48</v>
+      </c>
+      <c r="J108">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J109" t="e">
+      <c r="A109" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" t="s">
+        <v>39</v>
+      </c>
+      <c r="C109" t="s">
+        <v>36</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109">
+        <v>3</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>0.48</v>
+      </c>
+      <c r="I109">
+        <v>0.39</v>
+      </c>
+      <c r="J109">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J110" t="e">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>39</v>
+      </c>
+      <c r="C110" t="s">
+        <v>36</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110">
+        <v>3</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110">
+        <v>0.76</v>
+      </c>
+      <c r="I110">
+        <v>0.62</v>
+      </c>
+      <c r="J110">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J111" t="e">
+      <c r="A111" t="s">
+        <v>40</v>
+      </c>
+      <c r="B111" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>36</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>5</v>
+      </c>
+      <c r="G111">
+        <v>1.64</v>
+      </c>
+      <c r="I111">
+        <v>1.44</v>
+      </c>
+      <c r="J111">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J112" t="e">
+      <c r="A112" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" t="s">
+        <v>36</v>
+      </c>
+      <c r="D112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>0.62</v>
+      </c>
+      <c r="I112">
+        <v>0.5</v>
+      </c>
+      <c r="J112">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J113" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" t="s">
+        <v>36</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>0.36</v>
+      </c>
+      <c r="I113">
+        <v>0.31</v>
+      </c>
+      <c r="J113">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J114" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" t="s">
+        <v>39</v>
+      </c>
+      <c r="C114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114">
+        <v>3</v>
+      </c>
+      <c r="G114">
+        <v>0.44</v>
+      </c>
+      <c r="I114">
+        <v>0.38</v>
+      </c>
+      <c r="J114">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J115" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" t="s">
+        <v>39</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+      <c r="G115">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I115">
+        <v>0.5</v>
+      </c>
+      <c r="J115">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J116" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" t="s">
+        <v>36</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>5</v>
+      </c>
+      <c r="G116">
+        <v>0.51</v>
+      </c>
+      <c r="I116">
+        <v>0.47</v>
+      </c>
+      <c r="J116">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J117" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>0.73</v>
+      </c>
+      <c r="I117">
+        <v>0.64</v>
+      </c>
+      <c r="J117">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J118" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>0.37</v>
+      </c>
+      <c r="I118">
+        <v>0.31</v>
+      </c>
+      <c r="J118">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J119" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>39</v>
+      </c>
+      <c r="C119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>0.41</v>
+      </c>
+      <c r="I119">
+        <v>0.35</v>
+      </c>
+      <c r="J119">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J120" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>39</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>0.71</v>
+      </c>
+      <c r="I120">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J120">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J121" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <v>5</v>
+      </c>
+      <c r="G121">
+        <v>0.71</v>
+      </c>
+      <c r="I121">
+        <v>0.62</v>
+      </c>
+      <c r="J121">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J122" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>39</v>
+      </c>
+      <c r="C122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D122" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>0.9</v>
+      </c>
+      <c r="I122">
+        <v>0.78</v>
+      </c>
+      <c r="J122">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J123" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>39</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123">
+        <v>5</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>0.5</v>
+      </c>
+      <c r="I123">
+        <v>0.39</v>
+      </c>
+      <c r="J123">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J124" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124">
+        <v>5</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>0.4</v>
+      </c>
+      <c r="I124">
+        <v>0.34</v>
+      </c>
+      <c r="J124">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J125" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>39</v>
+      </c>
+      <c r="C125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D125" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125">
+        <v>5</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>0.96</v>
+      </c>
+      <c r="I125">
+        <v>0.84</v>
+      </c>
+      <c r="J125">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J126" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>39</v>
+      </c>
+      <c r="C126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126">
+        <v>5</v>
+      </c>
+      <c r="F126">
+        <v>5</v>
+      </c>
+      <c r="G126">
+        <v>0.49</v>
+      </c>
+      <c r="I126">
+        <v>0.42</v>
+      </c>
+      <c r="J126">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J127" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>42</v>
+      </c>
+      <c r="C127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>0.42</v>
+      </c>
+      <c r="I127">
+        <v>0.39</v>
+      </c>
+      <c r="J127">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J128" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D128" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>0.37</v>
+      </c>
+      <c r="I128">
+        <v>0.34</v>
+      </c>
+      <c r="J128">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J129" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>42</v>
+      </c>
+      <c r="C129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D129" t="s">
+        <v>38</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>0.37</v>
+      </c>
+      <c r="I129">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J129">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J130" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>4</v>
+      </c>
+      <c r="G130">
+        <v>0.27</v>
+      </c>
+      <c r="I130">
+        <v>0.21</v>
+      </c>
+      <c r="J130">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J131" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>5</v>
+      </c>
+      <c r="G131">
+        <v>0.26</v>
+      </c>
+      <c r="I131">
+        <v>0.21</v>
+      </c>
+      <c r="J131">
         <f t="shared" ref="J131:J194" si="2">H131/I131</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J132" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>47</v>
+      </c>
+      <c r="B132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I132">
+        <v>0.52</v>
+      </c>
+      <c r="J132">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J133" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D133" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>0.41</v>
+      </c>
+      <c r="I133">
+        <v>0.38</v>
+      </c>
+      <c r="J133">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J134" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>47</v>
+      </c>
+      <c r="B134" t="s">
+        <v>42</v>
+      </c>
+      <c r="C134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D134" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>0.53</v>
+      </c>
+      <c r="I134">
+        <v>0.51</v>
+      </c>
+      <c r="J134">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J135" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135" t="s">
+        <v>42</v>
+      </c>
+      <c r="C135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>4</v>
+      </c>
+      <c r="G135">
+        <v>0.41</v>
+      </c>
+      <c r="I135">
+        <v>0.35</v>
+      </c>
+      <c r="J135">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J136" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>47</v>
+      </c>
+      <c r="B136" t="s">
+        <v>42</v>
+      </c>
+      <c r="C136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D136" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>5</v>
+      </c>
+      <c r="G136">
+        <v>0.32</v>
+      </c>
+      <c r="I136">
+        <v>0.27</v>
+      </c>
+      <c r="J136">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J137" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>46</v>
+      </c>
+      <c r="B137" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>0.41</v>
+      </c>
+      <c r="I137">
+        <v>0.33</v>
+      </c>
+      <c r="J137">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J138" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>46</v>
+      </c>
+      <c r="B138" t="s">
+        <v>42</v>
+      </c>
+      <c r="C138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D138" t="s">
+        <v>38</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>0.34</v>
+      </c>
+      <c r="I138">
+        <v>0.26</v>
+      </c>
+      <c r="J138">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J139" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" t="s">
+        <v>42</v>
+      </c>
+      <c r="C139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D139" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>0.36</v>
+      </c>
+      <c r="I139">
+        <v>0.31</v>
+      </c>
+      <c r="J139">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J140" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>46</v>
+      </c>
+      <c r="B140" t="s">
+        <v>42</v>
+      </c>
+      <c r="C140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D140" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>4</v>
+      </c>
+      <c r="G140">
+        <v>0.39</v>
+      </c>
+      <c r="I140">
+        <v>0.33</v>
+      </c>
+      <c r="J140">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J141" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B141" t="s">
+        <v>42</v>
+      </c>
+      <c r="C141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D141" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>5</v>
+      </c>
+      <c r="G141">
+        <v>0.33</v>
+      </c>
+      <c r="I141">
+        <v>0.24</v>
+      </c>
+      <c r="J141">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J142" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" t="s">
+        <v>42</v>
+      </c>
+      <c r="C142" t="s">
+        <v>36</v>
+      </c>
+      <c r="D142" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0.23</v>
+      </c>
+      <c r="I142">
+        <v>0.17</v>
+      </c>
+      <c r="J142">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J143" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" t="s">
+        <v>42</v>
+      </c>
+      <c r="C143" t="s">
+        <v>36</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>0.35</v>
+      </c>
+      <c r="I143">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J143">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J144" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" t="s">
+        <v>42</v>
+      </c>
+      <c r="C144" t="s">
+        <v>36</v>
+      </c>
+      <c r="D144" t="s">
+        <v>38</v>
+      </c>
+      <c r="E144">
+        <v>4</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>0.2</v>
+      </c>
+      <c r="I144">
+        <v>0.2</v>
+      </c>
+      <c r="J144">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J145" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" t="s">
+        <v>42</v>
+      </c>
+      <c r="C145" t="s">
+        <v>36</v>
+      </c>
+      <c r="D145" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145">
+        <v>0.36</v>
+      </c>
+      <c r="I145">
+        <v>0.33</v>
+      </c>
+      <c r="J145">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J146" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" t="s">
+        <v>36</v>
+      </c>
+      <c r="D146" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>5</v>
+      </c>
+      <c r="G146">
+        <v>0.17</v>
+      </c>
+      <c r="I146">
+        <v>0.13</v>
+      </c>
+      <c r="J146">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J147" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>44</v>
+      </c>
+      <c r="B147" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s">
+        <v>38</v>
+      </c>
+      <c r="E147">
+        <v>5</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>0.23</v>
+      </c>
+      <c r="I147">
+        <v>0.2</v>
+      </c>
+      <c r="J147">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J148" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B148" t="s">
+        <v>42</v>
+      </c>
+      <c r="C148" t="s">
+        <v>36</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I148">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J148">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J149" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" t="s">
+        <v>42</v>
+      </c>
+      <c r="C149" t="s">
+        <v>36</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>0.42</v>
+      </c>
+      <c r="I149">
+        <v>0.36</v>
+      </c>
+      <c r="J149">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J150" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>44</v>
+      </c>
+      <c r="B150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C150" t="s">
+        <v>36</v>
+      </c>
+      <c r="D150" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+      <c r="F150">
+        <v>4</v>
+      </c>
+      <c r="G150">
+        <v>0.37</v>
+      </c>
+      <c r="I150">
+        <v>0.33</v>
+      </c>
+      <c r="J150">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J151" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>44</v>
+      </c>
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>36</v>
+      </c>
+      <c r="D151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I151">
+        <v>0.25</v>
+      </c>
+      <c r="J151">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J152" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>49</v>
+      </c>
+      <c r="B152" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D152" t="s">
+        <v>52</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>0.6</v>
+      </c>
+      <c r="I152">
+        <v>0.5</v>
+      </c>
+      <c r="J152">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J153" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>49</v>
+      </c>
+      <c r="B153" t="s">
+        <v>50</v>
+      </c>
+      <c r="C153" t="s">
+        <v>51</v>
+      </c>
+      <c r="D153" t="s">
+        <v>52</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>0.61</v>
+      </c>
+      <c r="I153">
+        <v>0.49</v>
+      </c>
+      <c r="J153">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J154" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>49</v>
+      </c>
+      <c r="B154" t="s">
+        <v>50</v>
+      </c>
+      <c r="C154" t="s">
+        <v>51</v>
+      </c>
+      <c r="D154" t="s">
+        <v>52</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>0.67</v>
+      </c>
+      <c r="I154">
+        <v>0.54</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J155" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" t="s">
+        <v>50</v>
+      </c>
+      <c r="C155" t="s">
+        <v>51</v>
+      </c>
+      <c r="D155" t="s">
+        <v>52</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I155">
+        <v>0.52</v>
+      </c>
+      <c r="J155">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J156" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>49</v>
+      </c>
+      <c r="B156" t="s">
+        <v>50</v>
+      </c>
+      <c r="C156" t="s">
+        <v>51</v>
+      </c>
+      <c r="D156" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156">
+        <v>0.94</v>
+      </c>
+      <c r="I156">
+        <v>0.78</v>
+      </c>
+      <c r="J156">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J157" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>53</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" t="s">
+        <v>52</v>
+      </c>
+      <c r="E157">
+        <v>2</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>0.61</v>
+      </c>
+      <c r="I157">
+        <v>0.52</v>
+      </c>
+      <c r="J157">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J158" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>53</v>
+      </c>
+      <c r="B158" t="s">
+        <v>50</v>
+      </c>
+      <c r="C158" t="s">
+        <v>51</v>
+      </c>
+      <c r="D158" t="s">
+        <v>52</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>0.78</v>
+      </c>
+      <c r="I158">
+        <v>0.93</v>
+      </c>
+      <c r="J158">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J159" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" t="s">
+        <v>50</v>
+      </c>
+      <c r="C159" t="s">
+        <v>51</v>
+      </c>
+      <c r="D159" t="s">
+        <v>52</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>0.33</v>
+      </c>
+      <c r="I159">
+        <v>0.37</v>
+      </c>
+      <c r="J159">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J160" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>53</v>
+      </c>
+      <c r="B160" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" t="s">
+        <v>51</v>
+      </c>
+      <c r="D160" t="s">
+        <v>52</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
+      <c r="F160">
+        <v>4</v>
+      </c>
+      <c r="G160">
+        <v>0.53</v>
+      </c>
+      <c r="I160">
+        <v>0.46</v>
+      </c>
+      <c r="J160">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J161" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>53</v>
+      </c>
+      <c r="B161" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" t="s">
+        <v>51</v>
+      </c>
+      <c r="D161" t="s">
+        <v>52</v>
+      </c>
+      <c r="E161">
+        <v>2</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161">
+        <v>0.49</v>
+      </c>
+      <c r="I161">
+        <v>0.39</v>
+      </c>
+      <c r="J161">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J162" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+      <c r="B162" t="s">
+        <v>50</v>
+      </c>
+      <c r="C162" t="s">
+        <v>51</v>
+      </c>
+      <c r="D162" t="s">
+        <v>52</v>
+      </c>
+      <c r="E162">
+        <v>3</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>0.31</v>
+      </c>
+      <c r="I162">
+        <v>0.35</v>
+      </c>
+      <c r="J162">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J163" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" t="s">
+        <v>50</v>
+      </c>
+      <c r="C163" t="s">
+        <v>51</v>
+      </c>
+      <c r="D163" t="s">
+        <v>52</v>
+      </c>
+      <c r="E163">
+        <v>3</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163">
+        <v>0.63</v>
+      </c>
+      <c r="I163">
+        <v>0.54</v>
+      </c>
+      <c r="J163">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J164" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>54</v>
+      </c>
+      <c r="B164" t="s">
+        <v>50</v>
+      </c>
+      <c r="C164" t="s">
+        <v>51</v>
+      </c>
+      <c r="D164" t="s">
+        <v>52</v>
+      </c>
+      <c r="E164">
+        <v>3</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>0.42</v>
+      </c>
+      <c r="I164">
+        <v>0.34</v>
+      </c>
+      <c r="J164">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J165" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" t="s">
+        <v>50</v>
+      </c>
+      <c r="C165" t="s">
+        <v>51</v>
+      </c>
+      <c r="D165" t="s">
+        <v>52</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+      <c r="G165">
+        <v>0.48</v>
+      </c>
+      <c r="I165">
+        <v>0.42</v>
+      </c>
+      <c r="J165">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J166" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>54</v>
+      </c>
+      <c r="B166" t="s">
+        <v>50</v>
+      </c>
+      <c r="C166" t="s">
+        <v>51</v>
+      </c>
+      <c r="D166" t="s">
+        <v>52</v>
+      </c>
+      <c r="E166">
+        <v>3</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166">
+        <v>0.51</v>
+      </c>
+      <c r="I166">
+        <v>0.42</v>
+      </c>
+      <c r="J166">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J167" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>55</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E167">
+        <v>4</v>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1.05</v>
+      </c>
+      <c r="I167">
+        <v>0.92</v>
+      </c>
+      <c r="J167">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J168" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>55</v>
+      </c>
+      <c r="B168" t="s">
+        <v>50</v>
+      </c>
+      <c r="C168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" t="s">
+        <v>52</v>
+      </c>
+      <c r="E168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>0.47</v>
+      </c>
+      <c r="I168">
+        <v>0.4</v>
+      </c>
+      <c r="J168">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J169" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>55</v>
+      </c>
+      <c r="B169" t="s">
+        <v>50</v>
+      </c>
+      <c r="C169" t="s">
+        <v>51</v>
+      </c>
+      <c r="D169" t="s">
+        <v>52</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>0.27</v>
+      </c>
+      <c r="I169">
+        <v>0.23</v>
+      </c>
+      <c r="J169">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J170" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>55</v>
+      </c>
+      <c r="B170" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" t="s">
+        <v>51</v>
+      </c>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>4</v>
+      </c>
+      <c r="G170">
+        <v>0.38</v>
+      </c>
+      <c r="I170">
+        <v>0.32</v>
+      </c>
+      <c r="J170">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J171" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B171" t="s">
+        <v>50</v>
+      </c>
+      <c r="C171" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" t="s">
+        <v>52</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>0.3</v>
+      </c>
+      <c r="I171">
+        <v>0.26</v>
+      </c>
+      <c r="J171">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J172" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>56</v>
+      </c>
+      <c r="B172" t="s">
+        <v>50</v>
+      </c>
+      <c r="C172" t="s">
+        <v>51</v>
+      </c>
+      <c r="D172" t="s">
+        <v>52</v>
+      </c>
+      <c r="E172">
+        <v>5</v>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0.54</v>
+      </c>
+      <c r="I172">
+        <v>0.45</v>
+      </c>
+      <c r="J172">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J173" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="B173" t="s">
+        <v>50</v>
+      </c>
+      <c r="C173" t="s">
+        <v>51</v>
+      </c>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173">
+        <v>5</v>
+      </c>
+      <c r="F173">
+        <v>2</v>
+      </c>
+      <c r="G173">
+        <v>0.52</v>
+      </c>
+      <c r="I173">
+        <v>0.42</v>
+      </c>
+      <c r="J173">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J174" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>56</v>
+      </c>
+      <c r="B174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C174" t="s">
+        <v>51</v>
+      </c>
+      <c r="D174" t="s">
+        <v>52</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>0.69</v>
+      </c>
+      <c r="I174">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J174">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J175" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>56</v>
+      </c>
+      <c r="B175" t="s">
+        <v>50</v>
+      </c>
+      <c r="C175" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>4</v>
+      </c>
+      <c r="G175">
+        <v>0.64</v>
+      </c>
+      <c r="I175">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J175">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J176" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>56</v>
+      </c>
+      <c r="B176" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" t="s">
+        <v>52</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>1.7</v>
+      </c>
+      <c r="I176">
+        <v>1.5</v>
+      </c>
+      <c r="J176">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J177" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>59</v>
+      </c>
+      <c r="B177" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I177">
+        <v>0.53</v>
+      </c>
+      <c r="J177">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J178" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B178" t="s">
+        <v>57</v>
+      </c>
+      <c r="C178" t="s">
+        <v>58</v>
+      </c>
+      <c r="D178" t="s">
+        <v>52</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>2</v>
+      </c>
+      <c r="G178">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I178">
+        <v>0.54</v>
+      </c>
+      <c r="J178">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J179" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>57</v>
+      </c>
+      <c r="C179" t="s">
+        <v>58</v>
+      </c>
+      <c r="D179" t="s">
+        <v>52</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>0.45</v>
+      </c>
+      <c r="I179">
+        <v>0.41</v>
+      </c>
+      <c r="J179">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J180" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" t="s">
+        <v>57</v>
+      </c>
+      <c r="C180" t="s">
+        <v>58</v>
+      </c>
+      <c r="D180" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>4</v>
+      </c>
+      <c r="G180">
+        <v>0.5</v>
+      </c>
+      <c r="I180">
+        <v>0.42</v>
+      </c>
+      <c r="J180">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J181" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>57</v>
+      </c>
+      <c r="C181" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
+      <c r="G181">
+        <v>0.59</v>
+      </c>
+      <c r="I181">
+        <v>0.54</v>
+      </c>
+      <c r="J181">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J182" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>60</v>
+      </c>
+      <c r="B182" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" t="s">
+        <v>58</v>
+      </c>
+      <c r="D182" t="s">
+        <v>52</v>
+      </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>0.37</v>
+      </c>
+      <c r="I182">
+        <v>0.36</v>
+      </c>
+      <c r="J182">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J183" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" t="s">
+        <v>57</v>
+      </c>
+      <c r="C183" t="s">
+        <v>58</v>
+      </c>
+      <c r="D183" t="s">
+        <v>52</v>
+      </c>
+      <c r="E183">
+        <v>2</v>
+      </c>
+      <c r="F183">
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>0.39</v>
+      </c>
+      <c r="I183">
+        <v>0.36</v>
+      </c>
+      <c r="J183">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J184" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>60</v>
+      </c>
+      <c r="B184" t="s">
+        <v>57</v>
+      </c>
+      <c r="C184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D184" t="s">
+        <v>52</v>
+      </c>
+      <c r="E184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>0.4</v>
+      </c>
+      <c r="I184">
+        <v>0.51</v>
+      </c>
+      <c r="J184">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J185" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>60</v>
+      </c>
+      <c r="B185" t="s">
+        <v>57</v>
+      </c>
+      <c r="C185" t="s">
+        <v>58</v>
+      </c>
+      <c r="D185" t="s">
+        <v>52</v>
+      </c>
+      <c r="E185">
+        <v>2</v>
+      </c>
+      <c r="F185">
+        <v>4</v>
+      </c>
+      <c r="G185">
+        <v>0.63</v>
+      </c>
+      <c r="I185">
+        <v>0.6</v>
+      </c>
+      <c r="J185">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J186" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>60</v>
+      </c>
+      <c r="B186" t="s">
+        <v>57</v>
+      </c>
+      <c r="C186" t="s">
+        <v>58</v>
+      </c>
+      <c r="D186" t="s">
+        <v>52</v>
+      </c>
+      <c r="E186">
+        <v>2</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186">
+        <v>0.52</v>
+      </c>
+      <c r="I186">
+        <v>0.48</v>
+      </c>
+      <c r="J186">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J187" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>61</v>
+      </c>
+      <c r="B187" t="s">
+        <v>57</v>
+      </c>
+      <c r="C187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D187" t="s">
+        <v>52</v>
+      </c>
+      <c r="E187">
+        <v>3</v>
+      </c>
+      <c r="F187">
+        <v>1</v>
+      </c>
+      <c r="G187">
+        <v>0.52</v>
+      </c>
+      <c r="I187">
+        <v>0.47</v>
+      </c>
+      <c r="J187">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J188" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>61</v>
+      </c>
+      <c r="B188" t="s">
+        <v>57</v>
+      </c>
+      <c r="C188" t="s">
+        <v>58</v>
+      </c>
+      <c r="D188" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188">
+        <v>3</v>
+      </c>
+      <c r="F188">
+        <v>2</v>
+      </c>
+      <c r="G188">
+        <v>0.33</v>
+      </c>
+      <c r="I188">
+        <v>0.31</v>
+      </c>
+      <c r="J188">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J189" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B189" t="s">
+        <v>57</v>
+      </c>
+      <c r="C189" t="s">
+        <v>58</v>
+      </c>
+      <c r="D189" t="s">
+        <v>52</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="G189">
+        <v>0.43</v>
+      </c>
+      <c r="I189">
+        <v>0.37</v>
+      </c>
+      <c r="J189">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J190" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>61</v>
+      </c>
+      <c r="B190" t="s">
+        <v>57</v>
+      </c>
+      <c r="C190" t="s">
+        <v>58</v>
+      </c>
+      <c r="D190" t="s">
+        <v>52</v>
+      </c>
+      <c r="E190">
+        <v>3</v>
+      </c>
+      <c r="F190">
+        <v>4</v>
+      </c>
+      <c r="G190">
+        <v>0.3</v>
+      </c>
+      <c r="I190">
+        <v>0.25</v>
+      </c>
+      <c r="J190">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J191" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>61</v>
+      </c>
+      <c r="B191" t="s">
+        <v>57</v>
+      </c>
+      <c r="C191" t="s">
+        <v>58</v>
+      </c>
+      <c r="D191" t="s">
+        <v>52</v>
+      </c>
+      <c r="E191">
+        <v>3</v>
+      </c>
+      <c r="F191">
+        <v>5</v>
+      </c>
+      <c r="G191">
+        <v>0.34</v>
+      </c>
+      <c r="I191">
+        <v>0.3</v>
+      </c>
+      <c r="J191">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J192" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>62</v>
+      </c>
+      <c r="B192" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" t="s">
+        <v>58</v>
+      </c>
+      <c r="D192" t="s">
+        <v>52</v>
+      </c>
+      <c r="E192">
+        <v>4</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>0.39</v>
+      </c>
+      <c r="I192">
+        <v>0.32</v>
+      </c>
+      <c r="J192">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J193" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>62</v>
+      </c>
+      <c r="B193" t="s">
+        <v>57</v>
+      </c>
+      <c r="C193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D193" t="s">
+        <v>52</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>2</v>
+      </c>
+      <c r="G193">
+        <v>0.53</v>
+      </c>
+      <c r="I193">
+        <v>0.47</v>
+      </c>
+      <c r="J193">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J194" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>62</v>
+      </c>
+      <c r="B194" t="s">
+        <v>57</v>
+      </c>
+      <c r="C194" t="s">
+        <v>58</v>
+      </c>
+      <c r="D194" t="s">
+        <v>52</v>
+      </c>
+      <c r="E194">
+        <v>4</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194">
+        <v>0.78</v>
+      </c>
+      <c r="I194">
+        <v>0.69</v>
+      </c>
+      <c r="J194">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J195" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>62</v>
+      </c>
+      <c r="B195" t="s">
+        <v>57</v>
+      </c>
+      <c r="C195" t="s">
+        <v>58</v>
+      </c>
+      <c r="D195" t="s">
+        <v>52</v>
+      </c>
+      <c r="E195">
+        <v>4</v>
+      </c>
+      <c r="F195">
+        <v>4</v>
+      </c>
+      <c r="G195">
+        <v>0.46</v>
+      </c>
+      <c r="I195">
+        <v>0.44</v>
+      </c>
+      <c r="J195">
         <f t="shared" ref="J195:J258" si="3">H195/I195</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J196" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>62</v>
+      </c>
+      <c r="B196" t="s">
+        <v>57</v>
+      </c>
+      <c r="C196" t="s">
+        <v>58</v>
+      </c>
+      <c r="D196" t="s">
+        <v>52</v>
+      </c>
+      <c r="E196">
+        <v>4</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196">
+        <v>0.69</v>
+      </c>
+      <c r="I196">
+        <v>0.66</v>
+      </c>
+      <c r="J196">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J197" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>63</v>
+      </c>
+      <c r="B197" t="s">
+        <v>57</v>
+      </c>
+      <c r="C197" t="s">
+        <v>58</v>
+      </c>
+      <c r="D197" t="s">
+        <v>52</v>
+      </c>
+      <c r="E197">
+        <v>5</v>
+      </c>
+      <c r="F197">
+        <v>1</v>
+      </c>
+      <c r="G197">
+        <v>0.44</v>
+      </c>
+      <c r="I197">
+        <v>0.41</v>
+      </c>
+      <c r="J197">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J198" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>63</v>
+      </c>
+      <c r="B198" t="s">
+        <v>57</v>
+      </c>
+      <c r="C198" t="s">
+        <v>58</v>
+      </c>
+      <c r="D198" t="s">
+        <v>52</v>
+      </c>
+      <c r="E198">
+        <v>5</v>
+      </c>
+      <c r="F198">
+        <v>2</v>
+      </c>
+      <c r="G198">
+        <v>0.64</v>
+      </c>
+      <c r="I198">
+        <v>0.59</v>
+      </c>
+      <c r="J198">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J199" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>63</v>
+      </c>
+      <c r="B199" t="s">
+        <v>57</v>
+      </c>
+      <c r="C199" t="s">
+        <v>58</v>
+      </c>
+      <c r="D199" t="s">
+        <v>52</v>
+      </c>
+      <c r="E199">
+        <v>5</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>0.37</v>
+      </c>
+      <c r="I199">
+        <v>0.32</v>
+      </c>
+      <c r="J199">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J200" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>63</v>
+      </c>
+      <c r="B200" t="s">
+        <v>57</v>
+      </c>
+      <c r="C200" t="s">
+        <v>58</v>
+      </c>
+      <c r="D200" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200">
+        <v>5</v>
+      </c>
+      <c r="F200">
+        <v>4</v>
+      </c>
+      <c r="G200">
+        <v>0.54</v>
+      </c>
+      <c r="I200">
+        <v>0.51</v>
+      </c>
+      <c r="J200">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J201" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>63</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201" t="s">
+        <v>58</v>
+      </c>
+      <c r="D201" t="s">
+        <v>52</v>
+      </c>
+      <c r="E201">
+        <v>5</v>
+      </c>
+      <c r="F201">
+        <v>5</v>
+      </c>
+      <c r="G201">
+        <v>0.44</v>
+      </c>
+      <c r="I201">
+        <v>0.39</v>
+      </c>
+      <c r="J201">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J202" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>65</v>
+      </c>
+      <c r="B202" t="s">
+        <v>64</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202">
+        <v>0.17</v>
+      </c>
+      <c r="I202">
+        <v>0.15</v>
+      </c>
+      <c r="J202">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J203" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>65</v>
+      </c>
+      <c r="B203" t="s">
+        <v>64</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>2</v>
+      </c>
+      <c r="G203">
+        <v>0.12</v>
+      </c>
+      <c r="I203">
+        <v>0.11</v>
+      </c>
+      <c r="J203">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J204" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>65</v>
+      </c>
+      <c r="B204" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>3</v>
+      </c>
+      <c r="G204">
+        <v>0.13</v>
+      </c>
+      <c r="I204">
+        <v>0.12</v>
+      </c>
+      <c r="J204">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J205" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>4</v>
+      </c>
+      <c r="G205">
+        <v>0.13</v>
+      </c>
+      <c r="I205">
+        <v>0.09</v>
+      </c>
+      <c r="J205">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J206" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>65</v>
+      </c>
+      <c r="B206" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>5</v>
+      </c>
+      <c r="G206">
+        <v>0.11</v>
+      </c>
+      <c r="I206">
+        <v>0.09</v>
+      </c>
+      <c r="J206">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J207" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>65</v>
+      </c>
+      <c r="B207" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>0.09</v>
+      </c>
+      <c r="I207">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J207">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J208" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>65</v>
+      </c>
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208">
+        <v>2</v>
+      </c>
+      <c r="F208">
+        <v>2</v>
+      </c>
+      <c r="G208">
+        <v>0.1</v>
+      </c>
+      <c r="I208">
+        <v>0.09</v>
+      </c>
+      <c r="J208">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J209" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>65</v>
+      </c>
+      <c r="B209" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209">
+        <v>2</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+      <c r="G209">
+        <v>0.09</v>
+      </c>
+      <c r="I209">
+        <v>0.08</v>
+      </c>
+      <c r="J209">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J210" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>65</v>
+      </c>
+      <c r="B210" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210">
+        <v>2</v>
+      </c>
+      <c r="F210">
+        <v>4</v>
+      </c>
+      <c r="G210">
+        <v>0.12</v>
+      </c>
+      <c r="I210">
+        <v>0.11</v>
+      </c>
+      <c r="J210">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J211" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>65</v>
+      </c>
+      <c r="B211" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>5</v>
+      </c>
+      <c r="G211">
+        <v>0.11</v>
+      </c>
+      <c r="I211">
+        <v>0.08</v>
+      </c>
+      <c r="J211">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J212" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>66</v>
+      </c>
+      <c r="B212" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212">
+        <v>3</v>
+      </c>
+      <c r="F212">
+        <v>1</v>
+      </c>
+      <c r="G212">
+        <v>0.08</v>
+      </c>
+      <c r="I212">
+        <v>0.06</v>
+      </c>
+      <c r="J212">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J213" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>66</v>
+      </c>
+      <c r="B213" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213">
+        <v>3</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>0.06</v>
+      </c>
+      <c r="I213">
+        <v>0.05</v>
+      </c>
+      <c r="J213">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J214" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>66</v>
+      </c>
+      <c r="B214" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>0.06</v>
+      </c>
+      <c r="I214">
+        <v>0.03</v>
+      </c>
+      <c r="J214">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J215" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>66</v>
+      </c>
+      <c r="B215" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215">
+        <v>3</v>
+      </c>
+      <c r="F215">
+        <v>4</v>
+      </c>
+      <c r="G215">
+        <v>0.09</v>
+      </c>
+      <c r="I215">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J215">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J216" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>66</v>
+      </c>
+      <c r="B216" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216">
+        <v>3</v>
+      </c>
+      <c r="F216">
+        <v>5</v>
+      </c>
+      <c r="G216">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I216">
+        <v>0.04</v>
+      </c>
+      <c r="J216">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J217" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>67</v>
+      </c>
+      <c r="B217" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217">
+        <v>4</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>0.08</v>
+      </c>
+      <c r="I217">
+        <v>0.06</v>
+      </c>
+      <c r="J217">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J218" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>67</v>
+      </c>
+      <c r="B218" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218">
+        <v>4</v>
+      </c>
+      <c r="F218">
+        <v>2</v>
+      </c>
+      <c r="G218">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I218">
+        <v>0.06</v>
+      </c>
+      <c r="J218">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J219" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>67</v>
+      </c>
+      <c r="B219" t="s">
+        <v>64</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219">
+        <v>4</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>0.11</v>
+      </c>
+      <c r="I219">
+        <v>0.09</v>
+      </c>
+      <c r="J219">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J220" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>67</v>
+      </c>
+      <c r="B220" t="s">
+        <v>64</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220">
+        <v>4</v>
+      </c>
+      <c r="F220">
+        <v>4</v>
+      </c>
+      <c r="G220">
+        <v>0.09</v>
+      </c>
+      <c r="I220">
+        <v>0.06</v>
+      </c>
+      <c r="J220">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J221" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221">
+        <v>4</v>
+      </c>
+      <c r="F221">
+        <v>5</v>
+      </c>
+      <c r="G221">
+        <v>0.12</v>
+      </c>
+      <c r="I221">
+        <v>0.09</v>
+      </c>
+      <c r="J221">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J222" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>67</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222">
+        <v>5</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0.1</v>
+      </c>
+      <c r="I222">
+        <v>0.06</v>
+      </c>
+      <c r="J222">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J223" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223">
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <v>2</v>
+      </c>
+      <c r="G223">
+        <v>0.18</v>
+      </c>
+      <c r="I223">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J223">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J224" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>67</v>
+      </c>
+      <c r="B224" t="s">
+        <v>64</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224">
+        <v>5</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>0.13</v>
+      </c>
+      <c r="I224">
+        <v>0.1</v>
+      </c>
+      <c r="J224">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J225" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>67</v>
+      </c>
+      <c r="B225" t="s">
+        <v>64</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225">
+        <v>5</v>
+      </c>
+      <c r="F225">
+        <v>4</v>
+      </c>
+      <c r="G225">
+        <v>0.08</v>
+      </c>
+      <c r="I225">
+        <v>0.06</v>
+      </c>
+      <c r="J225">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J226" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>67</v>
+      </c>
+      <c r="B226" t="s">
+        <v>64</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226">
+        <v>5</v>
+      </c>
+      <c r="F226">
+        <v>5</v>
+      </c>
+      <c r="G226">
+        <v>0.09</v>
+      </c>
+      <c r="I226">
+        <v>0.06</v>
+      </c>
+      <c r="J226">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J227" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>69</v>
+      </c>
+      <c r="B227" t="s">
+        <v>70</v>
+      </c>
+      <c r="C227" t="s">
+        <v>71</v>
+      </c>
+      <c r="D227" t="s">
+        <v>72</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0.27</v>
+      </c>
+      <c r="I227">
+        <v>0.32</v>
+      </c>
+      <c r="J227">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J228" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>69</v>
+      </c>
+      <c r="B228" t="s">
+        <v>70</v>
+      </c>
+      <c r="C228" t="s">
+        <v>71</v>
+      </c>
+      <c r="D228" t="s">
+        <v>72</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>2</v>
+      </c>
+      <c r="G228">
+        <v>0.43</v>
+      </c>
+      <c r="I228">
+        <v>0.4</v>
+      </c>
+      <c r="J228">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J229" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>69</v>
+      </c>
+      <c r="B229" t="s">
+        <v>70</v>
+      </c>
+      <c r="C229" t="s">
+        <v>71</v>
+      </c>
+      <c r="D229" t="s">
+        <v>72</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+      <c r="G229">
+        <v>0.54</v>
+      </c>
+      <c r="I229">
+        <v>0.48</v>
+      </c>
+      <c r="J229">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J230" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>69</v>
+      </c>
+      <c r="B230" t="s">
+        <v>70</v>
+      </c>
+      <c r="C230" t="s">
+        <v>71</v>
+      </c>
+      <c r="D230" t="s">
+        <v>72</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>4</v>
+      </c>
+      <c r="G230">
+        <v>0.7</v>
+      </c>
+      <c r="I230">
+        <v>0.62</v>
+      </c>
+      <c r="J230">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J231" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>69</v>
+      </c>
+      <c r="B231" t="s">
+        <v>70</v>
+      </c>
+      <c r="C231" t="s">
+        <v>71</v>
+      </c>
+      <c r="D231" t="s">
+        <v>72</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>5</v>
+      </c>
+      <c r="G231">
+        <v>0.51</v>
+      </c>
+      <c r="I231">
+        <v>0.46</v>
+      </c>
+      <c r="J231">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J232" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>73</v>
+      </c>
+      <c r="B232" t="s">
+        <v>70</v>
+      </c>
+      <c r="C232" t="s">
+        <v>71</v>
+      </c>
+      <c r="D232" t="s">
+        <v>72</v>
+      </c>
+      <c r="E232">
+        <v>2</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0.2</v>
+      </c>
+      <c r="I232">
+        <v>0.18</v>
+      </c>
+      <c r="J232">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J233" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>73</v>
+      </c>
+      <c r="B233" t="s">
+        <v>70</v>
+      </c>
+      <c r="C233" t="s">
+        <v>71</v>
+      </c>
+      <c r="D233" t="s">
+        <v>72</v>
+      </c>
+      <c r="E233">
+        <v>2</v>
+      </c>
+      <c r="F233">
+        <v>2</v>
+      </c>
+      <c r="G233">
+        <v>0.23</v>
+      </c>
+      <c r="I233">
+        <v>0.18</v>
+      </c>
+      <c r="J233">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J234" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>73</v>
+      </c>
+      <c r="B234" t="s">
+        <v>70</v>
+      </c>
+      <c r="C234" t="s">
+        <v>71</v>
+      </c>
+      <c r="D234" t="s">
+        <v>72</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>0.3</v>
+      </c>
+      <c r="I234">
+        <v>0.27</v>
+      </c>
+      <c r="J234">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J235" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>73</v>
+      </c>
+      <c r="B235" t="s">
+        <v>70</v>
+      </c>
+      <c r="C235" t="s">
+        <v>71</v>
+      </c>
+      <c r="D235" t="s">
+        <v>72</v>
+      </c>
+      <c r="E235">
+        <v>2</v>
+      </c>
+      <c r="F235">
+        <v>4</v>
+      </c>
+      <c r="G235">
+        <v>0.12</v>
+      </c>
+      <c r="I235">
+        <v>0.11</v>
+      </c>
+      <c r="J235">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J236" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>73</v>
+      </c>
+      <c r="B236" t="s">
+        <v>70</v>
+      </c>
+      <c r="C236" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" t="s">
+        <v>72</v>
+      </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>5</v>
+      </c>
+      <c r="G236">
+        <v>0.22</v>
+      </c>
+      <c r="I236">
+        <v>0.2</v>
+      </c>
+      <c r="J236">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J237" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>73</v>
+      </c>
+      <c r="B237" t="s">
+        <v>70</v>
+      </c>
+      <c r="C237" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237" t="s">
+        <v>72</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>0.22</v>
+      </c>
+      <c r="I237">
+        <v>0.22</v>
+      </c>
+      <c r="J237">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J238" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>73</v>
+      </c>
+      <c r="B238" t="s">
+        <v>70</v>
+      </c>
+      <c r="C238" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" t="s">
+        <v>72</v>
+      </c>
+      <c r="E238">
+        <v>3</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238">
+        <v>0.26</v>
+      </c>
+      <c r="I238">
+        <v>0.23</v>
+      </c>
+      <c r="J238">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J239" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>73</v>
+      </c>
+      <c r="B239" t="s">
+        <v>70</v>
+      </c>
+      <c r="C239" t="s">
+        <v>71</v>
+      </c>
+      <c r="D239" t="s">
+        <v>72</v>
+      </c>
+      <c r="E239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+      <c r="G239">
+        <v>0.24</v>
+      </c>
+      <c r="I239">
+        <v>0.21</v>
+      </c>
+      <c r="J239">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J240" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>73</v>
+      </c>
+      <c r="B240" t="s">
+        <v>70</v>
+      </c>
+      <c r="C240" t="s">
+        <v>71</v>
+      </c>
+      <c r="D240" t="s">
+        <v>72</v>
+      </c>
+      <c r="E240">
+        <v>3</v>
+      </c>
+      <c r="F240">
+        <v>4</v>
+      </c>
+      <c r="G240">
+        <v>0.36</v>
+      </c>
+      <c r="I240">
+        <v>0.31</v>
+      </c>
+      <c r="J240">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J241" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>73</v>
+      </c>
+      <c r="B241" t="s">
+        <v>70</v>
+      </c>
+      <c r="C241" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" t="s">
+        <v>72</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241">
+        <v>5</v>
+      </c>
+      <c r="G241">
+        <v>0.35</v>
+      </c>
+      <c r="I241">
+        <v>0.32</v>
+      </c>
+      <c r="J241">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J242" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>73</v>
+      </c>
+      <c r="B242" t="s">
+        <v>70</v>
+      </c>
+      <c r="C242" t="s">
+        <v>71</v>
+      </c>
+      <c r="D242" t="s">
+        <v>72</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>0.38</v>
+      </c>
+      <c r="I242">
+        <v>0.36</v>
+      </c>
+      <c r="J242">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J243" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>73</v>
+      </c>
+      <c r="B243" t="s">
+        <v>70</v>
+      </c>
+      <c r="C243" t="s">
+        <v>71</v>
+      </c>
+      <c r="D243" t="s">
+        <v>72</v>
+      </c>
+      <c r="E243">
+        <v>4</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+      <c r="G243">
+        <v>0.38</v>
+      </c>
+      <c r="I243">
+        <v>0.36</v>
+      </c>
+      <c r="J243">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J244" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>73</v>
+      </c>
+      <c r="B244" t="s">
+        <v>70</v>
+      </c>
+      <c r="C244" t="s">
+        <v>71</v>
+      </c>
+      <c r="D244" t="s">
+        <v>72</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244">
+        <v>0.18</v>
+      </c>
+      <c r="I244">
+        <v>0.16</v>
+      </c>
+      <c r="J244">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J245" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>73</v>
+      </c>
+      <c r="B245" t="s">
+        <v>70</v>
+      </c>
+      <c r="C245" t="s">
+        <v>71</v>
+      </c>
+      <c r="D245" t="s">
+        <v>72</v>
+      </c>
+      <c r="E245">
+        <v>4</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+      <c r="G245">
+        <v>0.38</v>
+      </c>
+      <c r="I245">
+        <v>0.38</v>
+      </c>
+      <c r="J245">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J246" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>73</v>
+      </c>
+      <c r="B246" t="s">
+        <v>70</v>
+      </c>
+      <c r="C246" t="s">
+        <v>71</v>
+      </c>
+      <c r="D246" t="s">
+        <v>72</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+      <c r="G246">
+        <v>0.33</v>
+      </c>
+      <c r="I246">
+        <v>0.32</v>
+      </c>
+      <c r="J246">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J247" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>74</v>
+      </c>
+      <c r="B247" t="s">
+        <v>70</v>
+      </c>
+      <c r="C247" t="s">
+        <v>71</v>
+      </c>
+      <c r="D247" t="s">
+        <v>72</v>
+      </c>
+      <c r="E247">
+        <v>5</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>0.37</v>
+      </c>
+      <c r="I247">
+        <v>0.34</v>
+      </c>
+      <c r="J247">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J248" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>74</v>
+      </c>
+      <c r="B248" t="s">
+        <v>70</v>
+      </c>
+      <c r="C248" t="s">
+        <v>71</v>
+      </c>
+      <c r="D248" t="s">
+        <v>72</v>
+      </c>
+      <c r="E248">
+        <v>5</v>
+      </c>
+      <c r="F248">
+        <v>2</v>
+      </c>
+      <c r="G248">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I248">
+        <v>0.24</v>
+      </c>
+      <c r="J248">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J249" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>74</v>
+      </c>
+      <c r="B249" t="s">
+        <v>70</v>
+      </c>
+      <c r="C249" t="s">
+        <v>71</v>
+      </c>
+      <c r="D249" t="s">
+        <v>72</v>
+      </c>
+      <c r="E249">
+        <v>5</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249">
+        <v>0.22</v>
+      </c>
+      <c r="I249">
+        <v>0.2</v>
+      </c>
+      <c r="J249">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J250" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>74</v>
+      </c>
+      <c r="B250" t="s">
+        <v>70</v>
+      </c>
+      <c r="C250" t="s">
+        <v>71</v>
+      </c>
+      <c r="D250" t="s">
+        <v>72</v>
+      </c>
+      <c r="E250">
+        <v>5</v>
+      </c>
+      <c r="F250">
+        <v>4</v>
+      </c>
+      <c r="G250">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I250">
+        <v>0.24</v>
+      </c>
+      <c r="J250">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J251" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>74</v>
+      </c>
+      <c r="B251" t="s">
+        <v>70</v>
+      </c>
+      <c r="C251" t="s">
+        <v>71</v>
+      </c>
+      <c r="D251" t="s">
+        <v>72</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251">
+        <v>5</v>
+      </c>
+      <c r="G251">
+        <v>0.4</v>
+      </c>
+      <c r="I251">
+        <v>0.47</v>
+      </c>
+      <c r="J251">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J252" t="e">
+        <v>0</v>
+      </c>
+      <c r="K251" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>79</v>
+      </c>
+      <c r="B252" t="s">
+        <v>76</v>
+      </c>
+      <c r="C252" t="s">
+        <v>77</v>
+      </c>
+      <c r="D252" t="s">
+        <v>78</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I252">
+        <v>0.15</v>
+      </c>
+      <c r="J252">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J253" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>79</v>
+      </c>
+      <c r="B253" t="s">
+        <v>76</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>2</v>
+      </c>
+      <c r="G253">
+        <v>0.42</v>
+      </c>
+      <c r="I253">
+        <v>0.41</v>
+      </c>
+      <c r="J253">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J254" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>79</v>
+      </c>
+      <c r="B254" t="s">
+        <v>76</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>3</v>
+      </c>
+      <c r="G254">
+        <v>0.38</v>
+      </c>
+      <c r="I254">
+        <v>0.38</v>
+      </c>
+      <c r="J254">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J255" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>79</v>
+      </c>
+      <c r="B255" t="s">
+        <v>76</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <v>0.4</v>
+      </c>
+      <c r="I255">
+        <v>0.39</v>
+      </c>
+      <c r="J255">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="256" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J256" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>79</v>
+      </c>
+      <c r="B256" t="s">
+        <v>76</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+      <c r="G256">
+        <v>0.32</v>
+      </c>
+      <c r="I256">
+        <v>0.27</v>
+      </c>
+      <c r="J256">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="257" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J257" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>79</v>
+      </c>
+      <c r="B257" t="s">
+        <v>76</v>
+      </c>
+      <c r="E257">
+        <v>2</v>
+      </c>
+      <c r="F257">
+        <v>1</v>
+      </c>
+      <c r="G257">
+        <v>0.16</v>
+      </c>
+      <c r="I257">
+        <v>0.15</v>
+      </c>
+      <c r="J257">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="258" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J258" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>80</v>
+      </c>
+      <c r="B258" t="s">
+        <v>76</v>
+      </c>
+      <c r="E258">
+        <v>2</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>0.18</v>
+      </c>
+      <c r="I258">
+        <v>0.17</v>
+      </c>
+      <c r="J258">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J259" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>80</v>
+      </c>
+      <c r="B259" t="s">
+        <v>76</v>
+      </c>
+      <c r="E259">
+        <v>2</v>
+      </c>
+      <c r="F259">
+        <v>3</v>
+      </c>
+      <c r="G259">
+        <v>0.26</v>
+      </c>
+      <c r="I259">
+        <v>0.25</v>
+      </c>
+      <c r="J259">
         <f t="shared" ref="J259:J322" si="4">H259/I259</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J260" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>80</v>
+      </c>
+      <c r="B260" t="s">
+        <v>76</v>
+      </c>
+      <c r="E260">
+        <v>2</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260">
+        <v>0.2</v>
+      </c>
+      <c r="I260">
+        <v>0.19</v>
+      </c>
+      <c r="J260">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J261" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>80</v>
+      </c>
+      <c r="B261" t="s">
+        <v>76</v>
+      </c>
+      <c r="E261">
+        <v>2</v>
+      </c>
+      <c r="F261">
+        <v>5</v>
+      </c>
+      <c r="G261">
+        <v>0.22</v>
+      </c>
+      <c r="I261">
+        <v>0.21</v>
+      </c>
+      <c r="J261">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J262" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>81</v>
+      </c>
+      <c r="B262" t="s">
+        <v>76</v>
+      </c>
+      <c r="E262">
+        <v>3</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>0.19</v>
+      </c>
+      <c r="I262">
+        <v>0.18</v>
+      </c>
+      <c r="J262">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J263" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>81</v>
+      </c>
+      <c r="B263" t="s">
+        <v>76</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263">
+        <v>2</v>
+      </c>
+      <c r="G263">
+        <v>0.22</v>
+      </c>
+      <c r="I263">
+        <v>0.21</v>
+      </c>
+      <c r="J263">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J264" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>81</v>
+      </c>
+      <c r="B264" t="s">
+        <v>76</v>
+      </c>
+      <c r="E264">
+        <v>3</v>
+      </c>
+      <c r="F264">
+        <v>3</v>
+      </c>
+      <c r="G264">
+        <v>0.18</v>
+      </c>
+      <c r="I264">
+        <v>0.17</v>
+      </c>
+      <c r="J264">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="265" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J265" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>81</v>
+      </c>
+      <c r="B265" t="s">
+        <v>76</v>
+      </c>
+      <c r="E265">
+        <v>3</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>0.2</v>
+      </c>
+      <c r="I265">
+        <v>0.21</v>
+      </c>
+      <c r="J265">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="266" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J266" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>81</v>
+      </c>
+      <c r="B266" t="s">
+        <v>76</v>
+      </c>
+      <c r="E266">
+        <v>3</v>
+      </c>
+      <c r="F266">
+        <v>5</v>
+      </c>
+      <c r="G266">
+        <v>0.21</v>
+      </c>
+      <c r="I266">
+        <v>0.2</v>
+      </c>
+      <c r="J266">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J267" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>82</v>
+      </c>
+      <c r="B267" t="s">
+        <v>76</v>
+      </c>
+      <c r="E267">
+        <v>4</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I267">
+        <v>0.13</v>
+      </c>
+      <c r="J267">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J268" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>82</v>
+      </c>
+      <c r="B268" t="s">
+        <v>76</v>
+      </c>
+      <c r="E268">
+        <v>4</v>
+      </c>
+      <c r="F268">
+        <v>2</v>
+      </c>
+      <c r="G268">
+        <v>0.15</v>
+      </c>
+      <c r="I268">
+        <v>0.13</v>
+      </c>
+      <c r="J268">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J269" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>82</v>
+      </c>
+      <c r="B269" t="s">
+        <v>76</v>
+      </c>
+      <c r="E269">
+        <v>4</v>
+      </c>
+      <c r="F269">
+        <v>3</v>
+      </c>
+      <c r="G269">
+        <v>0.15</v>
+      </c>
+      <c r="I269">
+        <v>0.13</v>
+      </c>
+      <c r="J269">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J270" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>82</v>
+      </c>
+      <c r="B270" t="s">
+        <v>76</v>
+      </c>
+      <c r="E270">
+        <v>4</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270">
+        <v>0.16</v>
+      </c>
+      <c r="I270">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J270">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J271" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>82</v>
+      </c>
+      <c r="B271" t="s">
+        <v>76</v>
+      </c>
+      <c r="E271">
+        <v>4</v>
+      </c>
+      <c r="F271">
+        <v>5</v>
+      </c>
+      <c r="G271">
+        <v>0.17</v>
+      </c>
+      <c r="I271">
+        <v>0.16</v>
+      </c>
+      <c r="J271">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J272" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>82</v>
+      </c>
+      <c r="B272" t="s">
+        <v>76</v>
+      </c>
+      <c r="E272">
+        <v>5</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0.16</v>
+      </c>
+      <c r="I272">
+        <v>0.13</v>
+      </c>
+      <c r="J272">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="273" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J273" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>82</v>
+      </c>
+      <c r="B273" t="s">
+        <v>76</v>
+      </c>
+      <c r="E273">
+        <v>5</v>
+      </c>
+      <c r="F273">
+        <v>2</v>
+      </c>
+      <c r="G273">
+        <v>0.23</v>
+      </c>
+      <c r="I273">
+        <v>0.2</v>
+      </c>
+      <c r="J273">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="274" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J274" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>82</v>
+      </c>
+      <c r="B274" t="s">
+        <v>76</v>
+      </c>
+      <c r="E274">
+        <v>5</v>
+      </c>
+      <c r="F274">
+        <v>3</v>
+      </c>
+      <c r="G274">
+        <v>0.15</v>
+      </c>
+      <c r="I274">
+        <v>0.13</v>
+      </c>
+      <c r="J274">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="275" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J275" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>82</v>
+      </c>
+      <c r="B275" t="s">
+        <v>76</v>
+      </c>
+      <c r="E275">
+        <v>5</v>
+      </c>
+      <c r="F275">
+        <v>4</v>
+      </c>
+      <c r="G275">
+        <v>0.22</v>
+      </c>
+      <c r="I275">
+        <v>0.19</v>
+      </c>
+      <c r="J275">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="276" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J276" t="e">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>82</v>
+      </c>
+      <c r="B276" t="s">
+        <v>76</v>
+      </c>
+      <c r="E276">
+        <v>5</v>
+      </c>
+      <c r="F276">
+        <v>5</v>
+      </c>
+      <c r="G276">
+        <v>0.26</v>
+      </c>
+      <c r="I276">
+        <v>0.25</v>
+      </c>
+      <c r="J276">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="277" spans="10:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J277" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J278" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J279" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J280" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J281" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J282" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J283" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J284" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J285" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J286" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J287" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J288" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
@@ -11872,4 +16200,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FCC17E4-A388-4CA6-BA7F-89196A141B11}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>